--- a/BagReport.xlsx
+++ b/BagReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="159">
   <si>
     <t>Номер дефекта</t>
   </si>
@@ -69,20 +69,23 @@
     <t>Скриншот приложения</t>
   </si>
   <si>
-    <t>2. В поле "Login" ввести символы: Az</t>
+    <t>2. В поле "Login" ввести 2 валидных символа</t>
   </si>
   <si>
     <t>3. Нажать на кнопку входа "SIGN IN"</t>
   </si>
   <si>
     <t>На странице авторизации в поле "Login" не задана верхняя граница в 32 символа</t>
+  </si>
+  <si>
+    <t>Незначительная (Minor)</t>
   </si>
   <si>
     <t>Выполнение тест-кейса #14 - "Страница авторизации. Валидация поля логин - валидные символы: Тестирование границ. Нижняя граница, невалидная длина"
 Условие: Открыта страница авторизации</t>
   </si>
   <si>
-    <t>1. В поле "Login" ввести 33 валидных символа: Az@Az@Az@Az@Az@Az@Az@Az@Az@Az@123</t>
+    <t>1. В поле "Login" ввести 33 валидных символа</t>
   </si>
   <si>
     <t>В поле "Login" выведено 32 символа</t>
@@ -98,7 +101,7 @@
 Условие: Открыта страница авторизации</t>
   </si>
   <si>
-    <t>1. Ввести в поле "Login" символы: Ая</t>
+    <t>1. Ввести в поле "Login" заглавный и строчный символы кириллицы</t>
   </si>
   <si>
     <t>Поле "Login" пустое</t>
@@ -111,7 +114,7 @@
 Условие: Открыта страница авторизации</t>
   </si>
   <si>
-    <t>1. Ввести в поле "Login" символы: ;#*()^</t>
+    <t>1. Ввести в поле "Login" специализированные символы</t>
   </si>
   <si>
     <t>В поле "Login" выведено 6 символов</t>
@@ -141,7 +144,7 @@
 (из данных по авторизации)</t>
   </si>
   <si>
-    <t>2. В поле "Password" ввести символы: Az</t>
+    <t>2. В поле "Password" ввести 2 валидных символа</t>
   </si>
   <si>
     <t>На странице авторизации в поле "Password" не задана верхняя граница в 32 символа</t>
@@ -151,13 +154,372 @@
 Условие: Открыта страница авторизации</t>
   </si>
   <si>
-    <t>1. В поле "Password" ввести 33 валидных символа: Az@Az@Az@Az@Az@Az@Az@Az@Az@Az@123</t>
+    <t>1. В поле "Password" ввести 33 валидных символа</t>
   </si>
   <si>
     <t>В поле "Password" выведено 32 символа</t>
   </si>
   <si>
     <t>В поле "Password" выведено 33 символа</t>
+  </si>
+  <si>
+    <t>На главной странице отсутсвует кнопка добавления новости</t>
+  </si>
+  <si>
+    <t>Блокирующая (Blocker)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение тест-кейса #38 - "Доступность функционала добавления новости с главной страницы"
+Условие: Выполнена авторизация в приложении, открыта главная страница </t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку с символом "+" в блоке "News"</t>
+  </si>
+  <si>
+    <t>Открывается блок "Creating NEWS"</t>
+  </si>
+  <si>
+    <t>Кнопка с символом "+" отсутсвует</t>
+  </si>
+  <si>
+    <t>Ссылка на Privacy Policy недоступна</t>
+  </si>
+  <si>
+    <t>Значительная (Major)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение тест-кейса #46 - "Доступность ссылки на Privacy Policy"
+Условие:Открыт блок "About" </t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку, находящуюся под указателем "Privacy Policy"</t>
+  </si>
+  <si>
+    <t>Открывается страница в браузере, страница загружается</t>
+  </si>
+  <si>
+    <t>Бразуер открывается, ссылка не загружается</t>
+  </si>
+  <si>
+    <t>Ссылка на Terms Of Use недоступна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение тест-кейса #47 - "Доступность ссылки на Terms Of Use"
+Условие:Открыт блок "About" </t>
+  </si>
+  <si>
+    <t>1. Нажать на ссылку, находящуюся под указателем "Terms Of Use"</t>
+  </si>
+  <si>
+    <t>На странице добавления новости в поле "Title" не задана верхняя граница в 32 символа</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #52 - "Добавление новости. Верхняя граница поля "Title". Невалидная длина"
+Условие: Открыта страница добавления новости</t>
+  </si>
+  <si>
+    <t>1. В поле "Title" ввести 33 валидных символа</t>
+  </si>
+  <si>
+    <t>В поле "Title" выведено 32 символа</t>
+  </si>
+  <si>
+    <t>В поле Title" выведено 33 символа</t>
+  </si>
+  <si>
+    <t>На странице добавления новости в поле "Description" не задана верхняя граница в 128 символов</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #54 - "Добавление новости. Верхняя граница поля "Description". Невалидная длина"
+Условие: Открыта страница добавления новости</t>
+  </si>
+  <si>
+    <t>1. В поле "Description" ввести 129 валидных символов</t>
+  </si>
+  <si>
+    <t>В поле "Description" видимы 128 символов</t>
+  </si>
+  <si>
+    <t>В поле "Description" выведено 129 символов</t>
+  </si>
+  <si>
+    <t>При добавлении новости не исключается возможность добавления новости в прошлом</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #58 - "Добавление новости - валидная дата, невалидное время (в прошлом)"
+Условие: Открыта страница добавления новости. Время - 12:27</t>
+  </si>
+  <si>
+    <t>1. Нажать на форму "Category" для раскрытия открывающегося списка</t>
+  </si>
+  <si>
+    <t>Выделенный час не изменяется - текущий час выделен</t>
+  </si>
+  <si>
+    <t>Выделенный час изменяется - выделено время на час раньше текущего</t>
+  </si>
+  <si>
+    <t>2. Выбрать категорию "Объявление"</t>
+  </si>
+  <si>
+    <t>3. В поле "Title" ввести : Диплом1234 + текущая дата</t>
+  </si>
+  <si>
+    <t>4. Выбрать поле "Publication date"</t>
+  </si>
+  <si>
+    <t>5. Выбрать дату на неделю позже текущей</t>
+  </si>
+  <si>
+    <t>6. Выбрать поле "Time"</t>
+  </si>
+  <si>
+    <t>7. Выбрать час на час раньше текущего</t>
+  </si>
+  <si>
+    <t>При фильтрации новости не исключается возможность выбора некорректных дат (дата "до" раньше "после")</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #62 - "Фильтр новости - негативный сценарий: неверный промежуток времени"
+Условие: Открыт блок новости. Текущая дата - 18.06.2023</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Фильтр"</t>
+  </si>
+  <si>
+    <t>Выбранная дата - дата на неделю позже текущей, дата на неделю раньше текущей не выбрана. Окно выбора даты не закрывается</t>
+  </si>
+  <si>
+    <t>Выбранная дата (на неделю раньше текущей) выделяется</t>
+  </si>
+  <si>
+    <t>2. Нажать на форму "Category" для раскрытия открывающегося списка</t>
+  </si>
+  <si>
+    <t>3. Выбрать категорию "Объявление"</t>
+  </si>
+  <si>
+    <t>4. Открыть первый блок выбора даты</t>
+  </si>
+  <si>
+    <t>6. Нажать кнопку "ОК"</t>
+  </si>
+  <si>
+    <t>7. Открыть второй блоке выбора даты</t>
+  </si>
+  <si>
+    <t>8. Выбрабть дату на неделю раньше текущей</t>
+  </si>
+  <si>
+    <t>При сортировке новости от последней к первой первые блоки неявляются видимыми</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #64 - "Сортировка новостей от последней к первой"
+Условие: Открыт блок новости.</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Сортировка"</t>
+  </si>
+  <si>
+    <t>Новость, которая была первой, находится в первом блоке</t>
+  </si>
+  <si>
+    <t>Первой видимой новость является не та новоость, которая изначально была в первом блоке</t>
+  </si>
+  <si>
+    <t>Новостная лента до сортировки
+Новостная лента после сортировки</t>
+  </si>
+  <si>
+    <t>2. Нажать на кнопку "Сортировка" еще раз</t>
+  </si>
+  <si>
+    <t>На странице добавления претензии в поле "Description" не задана верхняя граница в 128 символов</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #76 - "Блок "Претензии". Добавление претензии. Верхняя граница поля "Description". Невалидная длина"
+Условие: Открыто окно добавления претензии</t>
+  </si>
+  <si>
+    <t>В поле видимы 128 символов</t>
+  </si>
+  <si>
+    <t>В поле видимы 129 символов</t>
+  </si>
+  <si>
+    <t>Последняя добавленная претензия не появляется в начале списка претензий</t>
+  </si>
+  <si>
+    <t>Критическая (Critical)</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #77 - "Блок "Претензии". Добавление претензии. Позитивный сценарий"
+Условие: Открыто окно добавления претензии</t>
+  </si>
+  <si>
+    <t>1. В поле "Title" ввести : "Диплом123" + текущая дата</t>
+  </si>
+  <si>
+    <t>Окно добавления претензии закрывается. В ленте первой появилась претензия с названием "Диплом 123" + текущая дата</t>
+  </si>
+  <si>
+    <t>Первой является другая претензия (дата на ней раньше даты, указанной в созданной претензии)</t>
+  </si>
+  <si>
+    <t>2. Нажать на форму "Executor" для раскрытия открывающегося списка</t>
+  </si>
+  <si>
+    <t>3. Выбрать первого доступного исполнителя</t>
+  </si>
+  <si>
+    <t>5. Нажать кнопку "ОК"</t>
+  </si>
+  <si>
+    <t>7. Нажать кнопу "ОК"</t>
+  </si>
+  <si>
+    <t>8. В поле "Description" ввести:  "Описание объявления Диплом"</t>
+  </si>
+  <si>
+    <t>9. Нажать на кнопку "SAVE"</t>
+  </si>
+  <si>
+    <t>Приложение дает возможность оформить претензию на еще не наступивший день</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #79 - "Блок "Претензии". Добавление претензии - невалидная дата"
+Условие: Открыто окно добавления претензии; текущая дата - 28/06/2023</t>
+  </si>
+  <si>
+    <t>1. В поле "Title" ввести : "Диплом1234" + текущая дата</t>
+  </si>
+  <si>
+    <t>Выделенная дата не изменяется - текущая дата выделена</t>
+  </si>
+  <si>
+    <t>Дата в будущем выделяется</t>
+  </si>
+  <si>
+    <t>5. Выбрать дату на неделю позже</t>
+  </si>
+  <si>
+    <t>Приложение дает возможность оформить претензию на еще не наступившее время</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение тест-кейса #80 - "Блок "Претензии". Добавление претензии -  валидная дата, невалидное время"
+Условие: Открыто окно добавления претензии; текущая дата - 28/06/2023. Текущее время - 16:12 </t>
+  </si>
+  <si>
+    <t>Время в будущем выделяется</t>
+  </si>
+  <si>
+    <t>7. Выбрать час на час позже текущего</t>
+  </si>
+  <si>
+    <t>Последняя добавленная претензия не появляется в начале списка претензий на главной странице</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #82 - "Блок "Претензии" - Главная страница. Видимость ранее добавленной претензии"
+Условие: Открыто окно добавления претензии</t>
+  </si>
+  <si>
+    <t>1. В поле "Title" ввести : "Диплом12345" + текущая дата</t>
+  </si>
+  <si>
+    <t>Открыта главная страница. В блоке есть претензия с названием "Диплом 12345" + текущая дата</t>
+  </si>
+  <si>
+    <t>10. Нажать на кнопку "Гамбургер"</t>
+  </si>
+  <si>
+    <t>11. Нажать на кнопку "MAIN"</t>
+  </si>
+  <si>
+    <t>На странице претензий отсутствует кнопка сортировки</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #83 - "Блок "Претензии" - сортировка претензий от первой к последней"
+Условие: Открыт блок претензий</t>
+  </si>
+  <si>
+    <t>Претензия, которая была первой, находится в последнем блоке</t>
+  </si>
+  <si>
+    <t>Кнопки "Сортировка" нет на странице</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #84 - "Блок "Претензии" - сортировка претензий от последней новаости к первой"
+Условие: Открыт блок претензий</t>
+  </si>
+  <si>
+    <t>На странице добавления претензии в поле "Comment" не задана верхняя граница в 128 символов</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #93 - "Блок "Претензии". Добавление комментария. Верхняя граница поля "Comment". Невалидная длина"
+Условие: Открыто окно добавления комментария</t>
+  </si>
+  <si>
+    <t>1. В поле "Comment" ввести 129 валидных символов</t>
+  </si>
+  <si>
+    <t>Приложение позволяет не добавлять комменатрий при отклонении созданной претензии</t>
+  </si>
+  <si>
+    <t>Средняя (Medium)</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #102 - "Блок "Претензии". Изменение статуса претензии. Созданная претензия. Отклонить претензию. Обязателен ввод комментария"
+Условие: Открыт блок "Претензии", отфильтрованы претензии в статусе "Open"</t>
+  </si>
+  <si>
+    <t>1. Нажать на стрелку внизу первого блока претензии</t>
+  </si>
+  <si>
+    <t>Статус претензии изменился на "Cancelled", в блоке комментариев есть комментарий "Отменено"</t>
+  </si>
+  <si>
+    <t>Окно ввода комментария не появляется, претензия изменяет свой статус без обязательного ввода комментария</t>
+  </si>
+  <si>
+    <t>2. Нажать на кнопку "лист с настройками"</t>
+  </si>
+  <si>
+    <t>3. Нажать на кнопку "Throw out"</t>
+  </si>
+  <si>
+    <t>5. Появилось окно ввода комментария</t>
+  </si>
+  <si>
+    <t>5. Ввести комментарий "Отменено"</t>
+  </si>
+  <si>
+    <t>6. Нажать на кнопку "ОК"</t>
+  </si>
+  <si>
+    <t>Невозможно вернуть в работу выполненную претензию</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #107 - "Блок "Претензии". Изменение статуса претензии. Исполненная претензия. Вернуть в работу"
+Условие: Открыт блок "Претензии", отфильтрованы претензии в статусе "Executed"</t>
+  </si>
+  <si>
+    <t>Статус претензии изменился на "In progress", в блоке комментариев есть комментарий "Вернуть в работу"</t>
+  </si>
+  <si>
+    <t>Кнолпка изменения статуса претензии недоступна</t>
+  </si>
+  <si>
+    <t>3. Нажать на кнопку "Back to work"</t>
+  </si>
+  <si>
+    <t>5. Ввести комментарий "Вернуть в работу"</t>
+  </si>
+  <si>
+    <t>Невозможно вернуть в работу отмененную претензию</t>
+  </si>
+  <si>
+    <t>Выполнение тест-кейса #108 - "Блок "Претензии". Изменение статуса претензии. Отклоненнная претензия. Вернуть в работу"
+Условие: Открыт блок "Претензии", отфильтрованы претензии в статусе "Cancelled"</t>
   </si>
 </sst>
 </file>
@@ -317,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -365,9 +727,12 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -394,6 +759,33 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -507,7 +899,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="17"/>
@@ -515,118 +907,118 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>2.0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="E6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    <row r="7">
+      <c r="A7" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="E7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="H7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="18" t="s">
+    <row r="8">
+      <c r="A8" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>33</v>
+      <c r="E8" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="G8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -635,7 +1027,7 @@
         <v>6.0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>10</v>
@@ -644,12 +1036,12 @@
         <v>11</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -666,9 +1058,9 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
@@ -678,66 +1070,1459 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>7.0</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="F12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="19">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19">
+        <v>11.0</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="19">
+        <v>16.0</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="31">
+        <v>17.0</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="31">
+        <v>18.0</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="31">
+        <v>19.0</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="19">
+        <v>21.0</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="36.75" customHeight="1">
+      <c r="A69" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="36.0" customHeight="1">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="19">
+        <v>23.0</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="31">
+        <v>24.0</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="31">
+        <v>25.0</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="31">
+        <v>26.0</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="G9:G11"/>
+  <mergeCells count="104">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="G25:G32"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="G36:G44"/>
+    <mergeCell ref="H36:H44"/>
+    <mergeCell ref="I36:I44"/>
+    <mergeCell ref="E36:E44"/>
+    <mergeCell ref="D36:D44"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="D50:D56"/>
+    <mergeCell ref="C50:C56"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="I18:I24"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="A36:A44"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="G50:G56"/>
+    <mergeCell ref="G57:G67"/>
+    <mergeCell ref="H57:H67"/>
+    <mergeCell ref="I57:I67"/>
+    <mergeCell ref="E57:E67"/>
+    <mergeCell ref="D57:D67"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="E84:E89"/>
+    <mergeCell ref="D84:D89"/>
+    <mergeCell ref="H78:H83"/>
+    <mergeCell ref="H84:H89"/>
+    <mergeCell ref="I84:I89"/>
+    <mergeCell ref="G84:G89"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H72:H77"/>
+    <mergeCell ref="G72:G77"/>
+    <mergeCell ref="I72:I77"/>
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="G78:G83"/>
+    <mergeCell ref="A78:A83"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="E72:E77"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B83"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2 C5:C9 C12">
+    <dataValidation type="list" allowBlank="1" sqref="C2 C5:C9 C12:C18 C25 C33 C35 C68:C69 C71">
       <formula1>"Блокирующая (Blocker),Критическая (Critical),Значительная (Major),Незначительная (Minor),Тривиальная (Trivial)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C13:C973">
+    <dataValidation type="list" allowBlank="1" sqref="C36 C45 C50 C57 C72 C78 C84 C90:C967">
       <formula1>"Блокирующая (Blocker),Критическая (Critical),Средняя (Medium),Низкая (Low)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -749,8 +2534,27 @@
     <hyperlink r:id="rId5" ref="I8"/>
     <hyperlink r:id="rId6" ref="I9"/>
     <hyperlink r:id="rId7" ref="I12"/>
+    <hyperlink r:id="rId8" ref="I13"/>
+    <hyperlink r:id="rId9" ref="I14"/>
+    <hyperlink r:id="rId10" ref="I15"/>
+    <hyperlink r:id="rId11" ref="I16"/>
+    <hyperlink r:id="rId12" ref="I17"/>
+    <hyperlink r:id="rId13" ref="I18"/>
+    <hyperlink r:id="rId14" ref="I25"/>
+    <hyperlink r:id="rId15" ref="I33"/>
+    <hyperlink r:id="rId16" ref="I35"/>
+    <hyperlink r:id="rId17" ref="I36"/>
+    <hyperlink r:id="rId18" ref="I45"/>
+    <hyperlink r:id="rId19" ref="I50"/>
+    <hyperlink r:id="rId20" ref="I57"/>
+    <hyperlink r:id="rId21" ref="I68"/>
+    <hyperlink r:id="rId22" ref="I69"/>
+    <hyperlink r:id="rId23" ref="I71"/>
+    <hyperlink r:id="rId24" ref="I72"/>
+    <hyperlink r:id="rId25" ref="I78"/>
+    <hyperlink r:id="rId26" ref="I84"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
